--- a/medicine/Sexualité et sexologie/Différences_sexuelles_chez_l'humain/Différences_sexuelles_chez_l'humain.xlsx
+++ b/medicine/Sexualité et sexologie/Différences_sexuelles_chez_l'humain/Différences_sexuelles_chez_l'humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+          <t>Différences_sexuelles_chez_l'humain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différences de genre et de sexe chez l'humain sont étudiées dans plusieurs domaines, comme en physiologie, en médecine, en psychologie, ou encore en sociologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+          <t>Différences_sexuelles_chez_l'humain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Une distinction première : sexe et genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez l'humain, le sexe biologique est déterminé par cinq facteurs présents dès la naissance : la présence ou l'absence d'un chromosome Y, le type de gonades, les hormones sexuelles, l'anatomie de la reproduction interne (comme l'utérus chez les femmes) et les organes génitaux externes[1]. Le sexe génétique est déterminé uniquement par la présence ou l'absence d'un chromosome Y.
-Une distinction de base est à faire entre le sexe et le genre. Les différences de sexe se réfèrent généralement à des traits de dimorphisme sexuel ainsi qu'aux différences comportementales dues aux hormones sexuelles. De telles différences font l'objet d'une hypothèse selon laquelle elles seraient issues de la sélection sexuelle[2],[3]. Le terme de « différences entre les sexes » fait référence aux différences entre les deux groupes mâles et femelles, lesquels ont sans doute chacun la même morphologie sexuelle[pas clair] en raison d'adaptations biologiques sélectives, transmises héréditairement. En revanche, les différences entre les genres sont liées aux rôles sociaux et au développement de la puberté chez l'individu (distinctions entre garçon et homme, distinctions entre fille et femme). Le genre est un concept de sciences sociales qui se réfère aux caractéristiques sociales assignées aux individus sur la base d'une bicatégorisation entre masculin et féminin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'humain, le sexe biologique est déterminé par cinq facteurs présents dès la naissance : la présence ou l'absence d'un chromosome Y, le type de gonades, les hormones sexuelles, l'anatomie de la reproduction interne (comme l'utérus chez les femmes) et les organes génitaux externes. Le sexe génétique est déterminé uniquement par la présence ou l'absence d'un chromosome Y.
+Une distinction de base est à faire entre le sexe et le genre. Les différences de sexe se réfèrent généralement à des traits de dimorphisme sexuel ainsi qu'aux différences comportementales dues aux hormones sexuelles. De telles différences font l'objet d'une hypothèse selon laquelle elles seraient issues de la sélection sexuelle,. Le terme de « différences entre les sexes » fait référence aux différences entre les deux groupes mâles et femelles, lesquels ont sans doute chacun la même morphologie sexuelle[pas clair] en raison d'adaptations biologiques sélectives, transmises héréditairement. En revanche, les différences entre les genres sont liées aux rôles sociaux et au développement de la puberté chez l'individu (distinctions entre garçon et homme, distinctions entre fille et femme). Le genre est un concept de sciences sociales qui se réfère aux caractéristiques sociales assignées aux individus sur la base d'une bicatégorisation entre masculin et féminin.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+          <t>Différences_sexuelles_chez_l'humain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>En médecine : différences liées au sexe (DLS), différences liées au genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C'est en médecine qu'apparaissent pour la première fois, dès les années 1990, et de façon un peu interchangeable d'abord, les notions de "Gender-Related Difference" (traduisible par "différence liée au genre" et de SRD (Sex-Related-Difference), traduisible par "différences liées au sexe" (DLS). La différence entre les sexes en médecine inclut en effet des maladies spécifiques au sexe; mais au-delà, des différences sont visibles dans les genres, et la médecine tend désormais à les prendre en compte.
-Les maladies liées au sexe sont des maladies qui sont plus habituelles à un seul sexe, ou qui se manifestent différemment dans chaque sexe. Par exemple, certaines maladies auto-immunes peuvent se produire principalement dans un sexe, pour des raisons inconnues. 90 % des cas de cirrhose biliaire primitive affectent les femmes, alors que la cholangite sclérosante primitive est plus fréquente chez les hommes. La médecine fondée sur le genre, aussi appelé « la médecine de genre » (Gender Medicine)[réf. souhaitée], est le domaine de la médecine qui étudie les différences biologiques et physiologiques entre les sexes humains et leur influence sur la maladie. Traditionnellement, la recherche médicale a surtout été effectuée en utilisant le corps masculin comme base pour les études cliniques, en partie parce qu'il est difficile d'intervenir lorsque des femmes sont enceintes, par exemple. Des résultats marquant des différences, mais toujours avec cette prévalence du masculin ont également été observés dans la médecine du sport, où les hommes représentent généralement plus de 60 % des individus étudiés[4].
+Les maladies liées au sexe sont des maladies qui sont plus habituelles à un seul sexe, ou qui se manifestent différemment dans chaque sexe. Par exemple, certaines maladies auto-immunes peuvent se produire principalement dans un sexe, pour des raisons inconnues. 90 % des cas de cirrhose biliaire primitive affectent les femmes, alors que la cholangite sclérosante primitive est plus fréquente chez les hommes. La médecine fondée sur le genre, aussi appelé « la médecine de genre » (Gender Medicine)[réf. souhaitée], est le domaine de la médecine qui étudie les différences biologiques et physiologiques entre les sexes humains et leur influence sur la maladie. Traditionnellement, la recherche médicale a surtout été effectuée en utilisant le corps masculin comme base pour les études cliniques, en partie parce qu'il est difficile d'intervenir lorsque des femmes sont enceintes, par exemple. Des résultats marquant des différences, mais toujours avec cette prévalence du masculin ont également été observés dans la médecine du sport, où les hommes représentent généralement plus de 60 % des individus étudiés.
 Or, les résultats de ces études ont été le plus souvent été appliqués à tous genres confondus et les infirmiers ont adopté une approche uniforme dans le traitement à la fois des patients de sexe masculins et féminins. La recherche médicale a tardivement commencé à comprendre l'importance de prendre en compte les différents genres et sexes, car les symptômes induisant un traitement médical peuvent être en vérité très différents entre les sexes.
-En France, ce sont des spécialistes de philosophie, de sociologie ou de psychologie, comme Peggy Sastre ou Nicole Edelman [5] qui ont les premièr(e)s montré, après les Anglo-Saxons, que les maladies avaient un genre ou que le genre n'était pas étranger à la santé. L'INSERM y attache désormais de l'importance[6] et reconnaît que les risques cardiaques sont sous-estimés chez les femmes. On sait désormais que non seulement les différences de sexe mais aussi de genre, avec leurs représentations et préjugés, doivent être prises en compte en médecine.
+En France, ce sont des spécialistes de philosophie, de sociologie ou de psychologie, comme Peggy Sastre ou Nicole Edelman  qui ont les premièr(e)s montré, après les Anglo-Saxons, que les maladies avaient un genre ou que le genre n'était pas étranger à la santé. L'INSERM y attache désormais de l'importance et reconnaît que les risques cardiaques sont sous-estimés chez les femmes. On sait désormais que non seulement les différences de sexe mais aussi de genre, avec leurs représentations et préjugés, doivent être prises en compte en médecine.
 Les maladies liées au sexe et au genre ont différentes causes dont :
 Les maladies génétiques.
 Certaines parties du système reproducteur spécifiques à un sexe en particulier.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+          <t>Différences_sexuelles_chez_l'humain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,13 +597,15 @@
           <t>En physiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différences de sexe dans la physiologie humaine sont des distinctions de caractéristiques physiologiques associées soit à l'homme, soit à la femme. Celles-ci peuvent être de plusieurs types, directs et indirects.
 Le type direct est le résultat des différences déterminées par le chromosome Y.
 Le type indirect étant une caractéristique influencée indirectement (par exemple, hormonalement) par le chromosome Y. Le dimorphisme sexuel est un terme pour la différence phénotypique entre les mâles et les femelles de la même espèce.
 Les différences de genre directs suivent une distribution bimodale. Grâce au processus de la méiose et de la fécondation (à de rares exceptions), chaque individu est créé avec zéro ou un chromosome Y. Le résultat complémentaire pour le chromosome X suit, soit un double ou un seul X. Par conséquent, les différences sexuelles directes sont généralement binaires (bien que les écarts dans les processus biologiques complexes ne sont pas binaires). Celles-ci comprennent, par exemple les gonades mâles.
-Les différences sexuelles indirectes sont les différences générales quantifiées par des preuves empiriques et l'analyse statistiques. La plupart des caractéristiques différentes seront conformes à une courbe gaussienne (c'est-à-dire normale), la distribution qui peut être décrite largement par la moyenne (distribution de crête) et par l'écart-type. Souvent, seule la moyenne ou la différence moyenne entre les sexes est donnée. Par exemple, la plupart des hommes sont plus grands et plus forts que les femmes[7], mais un individu féminin pourrait être plus forte qu'un individu masculin. Ces différences et leur étendue varient selon les sociétés.
+Les différences sexuelles indirectes sont les différences générales quantifiées par des preuves empiriques et l'analyse statistiques. La plupart des caractéristiques différentes seront conformes à une courbe gaussienne (c'est-à-dire normale), la distribution qui peut être décrite largement par la moyenne (distribution de crête) et par l'écart-type. Souvent, seule la moyenne ou la différence moyenne entre les sexes est donnée. Par exemple, la plupart des hommes sont plus grands et plus forts que les femmes, mais un individu féminin pourrait être plus forte qu'un individu masculin. Ces différences et leur étendue varient selon les sociétés.
 Les différences les plus évidentes entre les hommes et les femmes comprennent toutes les fonctionnalités liées à la procréation. Notamment les endocrines (hormonaux) et leurs effets physiologiques et comportementaux, incluant la différenciation des gonades, organes génitaux internes et externes, la différenciation du sein, et la différenciation de la masse musculaire, la hauteur, la distribution de la pilosité, et l'instinct maternel ou de survie.
 </t>
         </is>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+          <t>Différences_sexuelles_chez_l'humain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,25 +635,11 @@
           <t>En psychologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les recherches sur les différences sexuelles biologiques dans la psychologie humaine étudient les différences cognitives et comportementales entre les hommes et les femmes. Cette recherche utilise des tests expérimentaux de cognition variés. Les tests se concentrent sur les différences possibles dans des domaines tels que le QI, le raisonnement spatial, l'agression, l'émotion, l'instinct et la structure du cerveau et de sa fonction.
-Organisation du cerveau
-La structure du cerveau présente de très fortes différences entre individus, indépendamment de leur sexe, un fait lié à sa très grande plasticité. À l'inverse, selon nos connaissances actuelles (et nos moyens d'étude), on n'observe quasiment pas de différence de structure entre hommes et femmes, qui soit significative statistiquement.
-La seule différence est la taille d'une masse de neurones situé dans l'aire pré-optique de l'hypothalamus, plus grande chez l'homme. Or Personne ne sait encore ce que fait cet amas de cellules comme le dit Rebecca Jordan-Young, des recherches sont en cours en ce qui concerne ce petit noyau de fonction inconnue
-[8].
-Rebecca Jordan-Young enseigne que les supposées différences précédemment observées entre les cerveaux d'hommes et de femmes étaient dues à des biais liés au trop faible nombre de sujets observés, les différences interindividuelles étant importantes au sein d'un même sexe.
-Intelligence
-La plupart des tests de QI sont désormais construits de sorte qu'il n'y ait pas de différences de score global entre les hommes et les femmes. Les domaines où des différences peuvent apparaître comprennent les capacités verbale et mathématique[9],[10]. Ces résultats sont encore l'objet de polémiques. Les tests de QI, en mesure du facteur g ont tendance à montrer que les différences sexuelles sont soit inexistantes ou négligeable entre les genres[10],[11]. Une recherche datant de 2008 a révélé qu'il n'y avait pas de différences significatives entre les sexes dans les compétences en mathématiques dans la population globale[réf. souhaitée]. Mais dans les choix des études scientifiques, les hommes représentent 80 % des étudiants[12].
-Du fait que les facteurs sociaux et environnementaux affectent l'activité du cerveau et le comportement, où les différences réelles sont trouvées, il peut être difficile pour les chercheurs d'évaluer si oui ou non les différences sont innées. Les études sur ce sujet explorent la possibilité d'influences sociales sur les comportements sociaux et cognitifs des deux genres.
-Mémoire
-Différences dans les troubles mentaux
-Cynthia M. Hartung &amp; Thomas A. Widiger (1998) ont constaté que de nombreux types de maladies mentales et des problèmes comportementaux montrent des différences entre les genres dans la prévalence et l'incidence. "Sur les 80 troubles diagnostiqués chez l'adulte ayant les rapports sexuels, 35 sont dits être plus fréquents chez les hommes que chez les femmes (dont 17 sont des paraphilie), 31 sont dits être plus fréquents chez les femmes que les hommes, et 14 sont dits être aussi fréquents chez les deux sexes."[13]
-Ensemble des variables psychologiques
-En 2005, Janet Shibley Hyde de l'Université de Wisconsin-Madison a introduit une hypothèse sur les similitudes de sexe, qui suggère que les hommes et les femmes sont similaires pour la grande majorité (78 %) des variables psychologiques. La recherche a porté sur les variables cognitives (par exemple, la compréhension en lecture, en mathématiques), la communication (par exemple, la loquacité, les expressions faciales), le social et la personnalité (par exemple, l'agression, la sexualité), le bien-être psychologique et les comportements moteurs. En utilisant les résultats d'un examen de 46 méta-analyses, elle a constaté que 78 % des différences entre les sexes étaient petites ou proche de zéro, à quelques exceptions près, qui étaient certains comportements moteurs, et certains aspects de la sexualité, où l'on trouve là les plus grandes les plus grandes différences entre les genres. Elle conclut son article en déclarant : « Il est temps d'examiner les coûts des différences entre les sexes. Ils causent sans doute des dommages dans de nombreux domaines, y compris les chances des femmes dans le milieu du travail, les conflits de couple de la communication, et l'analyse des problèmes d'estime de soi chez les adolescents[14]. »
-Hyde a également déclaré que « les variations au sein des genres sont plus grandes que les variations entre les genres»[réf. souhaitée], ce que Rebecca Jordan-Young a noté[pas clair].
-Différences dans le développement
-En 2012, Irina Trofimova[15] présente un phénomène qu'elle baptise middle age – middle sex (« âge moyen, sexe moyen ») : si des différences sont constatées entre des jeunes individus mâles et femelles, (telles que l'avantage féminin dans la fluidité verbale et l'avantage des hommes dans la force physique), celles-ci tendent à se résorber autour de l'âge de 25 ans. Elle a exposé plusieurs autres études sur les humains et les primates montrant un nivellement des différences sexuelles dans la sociabilité et la force physique. Mâles et femelles pourraient en effet avoir des moments différents de maturité physique et verbale : selon McGuinness et Pribram (1978) au cours des deux premières années de vie, l'apprentissage de la parole et de la marche se produisent rarement simultanément, ce qui suggèrent que ces deux compétences utilisent les mêmes réseaux neuronaux. Cela coïncide avec la plus grande mobilité des garçons, accompagnés de leurs plus faibles taux de développement de la parole dans l'enfance, par rapport aux filles. Ces différents moments de maturation apparaissent comme des différences sexuelles dans le plus jeune âge, et se stabilisent à l'âge adulte (Barbu, Cabanes, &amp; Le Maner-Idrissi, 2011). Ce phénomène de « l'âge moyen - sex moyen » pourrait expliquer pourquoi les rapports issus des méta-analyses et de plusieurs études expérimentales de capacités verbales, par exemple, à partir de participants adultes n'ont rapporté aucune différence de genre.
 </t>
         </is>
       </c>
@@ -646,7 +650,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+          <t>Différences_sexuelles_chez_l'humain</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,19 +665,248 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>En psychologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Organisation du cerveau</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La structure du cerveau présente de très fortes différences entre individus, indépendamment de leur sexe, un fait lié à sa très grande plasticité. À l'inverse, selon nos connaissances actuelles (et nos moyens d'étude), on n'observe quasiment pas de différence de structure entre hommes et femmes, qui soit significative statistiquement.
+La seule différence est la taille d'une masse de neurones situé dans l'aire pré-optique de l'hypothalamus, plus grande chez l'homme. Or Personne ne sait encore ce que fait cet amas de cellules comme le dit Rebecca Jordan-Young, des recherches sont en cours en ce qui concerne ce petit noyau de fonction inconnue
+.
+Rebecca Jordan-Young enseigne que les supposées différences précédemment observées entre les cerveaux d'hommes et de femmes étaient dues à des biais liés au trop faible nombre de sujets observés, les différences interindividuelles étant importantes au sein d'un même sexe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Différences_sexuelles_chez_l'humain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En psychologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des tests de QI sont désormais construits de sorte qu'il n'y ait pas de différences de score global entre les hommes et les femmes. Les domaines où des différences peuvent apparaître comprennent les capacités verbale et mathématique,. Ces résultats sont encore l'objet de polémiques. Les tests de QI, en mesure du facteur g ont tendance à montrer que les différences sexuelles sont soit inexistantes ou négligeable entre les genres,. Une recherche datant de 2008 a révélé qu'il n'y avait pas de différences significatives entre les sexes dans les compétences en mathématiques dans la population globale[réf. souhaitée]. Mais dans les choix des études scientifiques, les hommes représentent 80 % des étudiants.
+Du fait que les facteurs sociaux et environnementaux affectent l'activité du cerveau et le comportement, où les différences réelles sont trouvées, il peut être difficile pour les chercheurs d'évaluer si oui ou non les différences sont innées. Les études sur ce sujet explorent la possibilité d'influences sociales sur les comportements sociaux et cognitifs des deux genres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Différences_sexuelles_chez_l'humain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En psychologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Différences dans les troubles mentaux</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynthia M. Hartung &amp; Thomas A. Widiger (1998) ont constaté que de nombreux types de maladies mentales et des problèmes comportementaux montrent des différences entre les genres dans la prévalence et l'incidence. "Sur les 80 troubles diagnostiqués chez l'adulte ayant les rapports sexuels, 35 sont dits être plus fréquents chez les hommes que chez les femmes (dont 17 sont des paraphilie), 31 sont dits être plus fréquents chez les femmes que les hommes, et 14 sont dits être aussi fréquents chez les deux sexes."
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Différences_sexuelles_chez_l'humain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>En psychologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ensemble des variables psychologiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, Janet Shibley Hyde de l'Université de Wisconsin-Madison a introduit une hypothèse sur les similitudes de sexe, qui suggère que les hommes et les femmes sont similaires pour la grande majorité (78 %) des variables psychologiques. La recherche a porté sur les variables cognitives (par exemple, la compréhension en lecture, en mathématiques), la communication (par exemple, la loquacité, les expressions faciales), le social et la personnalité (par exemple, l'agression, la sexualité), le bien-être psychologique et les comportements moteurs. En utilisant les résultats d'un examen de 46 méta-analyses, elle a constaté que 78 % des différences entre les sexes étaient petites ou proche de zéro, à quelques exceptions près, qui étaient certains comportements moteurs, et certains aspects de la sexualité, où l'on trouve là les plus grandes les plus grandes différences entre les genres. Elle conclut son article en déclarant : « Il est temps d'examiner les coûts des différences entre les sexes. Ils causent sans doute des dommages dans de nombreux domaines, y compris les chances des femmes dans le milieu du travail, les conflits de couple de la communication, et l'analyse des problèmes d'estime de soi chez les adolescents. »
+Hyde a également déclaré que « les variations au sein des genres sont plus grandes que les variations entre les genres»[réf. souhaitée], ce que Rebecca Jordan-Young a noté[pas clair].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Différences_sexuelles_chez_l'humain</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>En psychologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Différences dans le développement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, Irina Trofimova présente un phénomène qu'elle baptise middle age – middle sex (« âge moyen, sexe moyen ») : si des différences sont constatées entre des jeunes individus mâles et femelles, (telles que l'avantage féminin dans la fluidité verbale et l'avantage des hommes dans la force physique), celles-ci tendent à se résorber autour de l'âge de 25 ans. Elle a exposé plusieurs autres études sur les humains et les primates montrant un nivellement des différences sexuelles dans la sociabilité et la force physique. Mâles et femelles pourraient en effet avoir des moments différents de maturité physique et verbale : selon McGuinness et Pribram (1978) au cours des deux premières années de vie, l'apprentissage de la parole et de la marche se produisent rarement simultanément, ce qui suggèrent que ces deux compétences utilisent les mêmes réseaux neuronaux. Cela coïncide avec la plus grande mobilité des garçons, accompagnés de leurs plus faibles taux de développement de la parole dans l'enfance, par rapport aux filles. Ces différents moments de maturation apparaissent comme des différences sexuelles dans le plus jeune âge, et se stabilisent à l'âge adulte (Barbu, Cabanes, &amp; Le Maner-Idrissi, 2011). Ce phénomène de « l'âge moyen - sex moyen » pourrait expliquer pourquoi les rapports issus des méta-analyses et de plusieurs études expérimentales de capacités verbales, par exemple, à partir de participants adultes n'ont rapporté aucune différence de genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Différences_sexuelles_chez_l'humain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Sociologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Criminalité
-Les différences de genre dans la criminalité sont les différences entre les hommes et les femmes en tant qu'auteurs ou victimes de la criminalité. De telles études peuvent appartenir à des domaines tels que la criminologie ou la sociobiologie (laquelle tente de démontrer une relation de cause à effet par facteurs biologiques, dans ce cas, ce sera l'effet du sexe (DLS) et non du genre sur les comportements humains).
-Ainsi, les actes de délinquance sont plus élevés pour les hommes que les femmes, et les hommes commettent des actes criminels plus que les femmes [16]. Les explications comprennent notamment la tendance des hommes au risque.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Criminalité</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les différences de genre dans la criminalité sont les différences entre les hommes et les femmes en tant qu'auteurs ou victimes de la criminalité. De telles études peuvent appartenir à des domaines tels que la criminologie ou la sociobiologie (laquelle tente de démontrer une relation de cause à effet par facteurs biologiques, dans ce cas, ce sera l'effet du sexe (DLS) et non du genre sur les comportements humains).
+Ainsi, les actes de délinquance sont plus élevés pour les hommes que les femmes, et les hommes commettent des actes criminels plus que les femmes . Les explications comprennent notamment la tendance des hommes au risque.
 Malgré la difficulté interprétative, les statistiques sur la criminalité peuvent fournir un moyen d'enquêter sur une telle relation. Une différence est observable dans les taux de criminalité entre les hommes et les femmes et pourrait être due à des facteurs socio-culturels, ou à des facteurs biologiques (comme prétendent les théories socio-biologiques). En outre, la nature du crime est pris en compte. La criminalité peut être mesurée par des données telles que les dossiers d'arrestation, les taux d'incarcération et à des enquêtes.
-Des études ont fait valoir que les hommes impliqués dans des faits de violence conjugale, qu'ils soient auteurs, victimes ou les deux, subissaient les effets d'un préjugé défavorable dans l'application de la loi[17],[18],[19].
-Burton et al. (1998) ont constaté que de faibles niveaux de maîtrise de soi sont souvent associés à une activité criminelle.
-Éducation
-En 2013, 74,1 % des femmes étaient inscrites dans l'enseignement secondaire, indépendamment de l'âge, à l'échelle mondiale[20]. Dans la même année, 76,3 % des hommes étaient inscrits[21]. Cela représente une augmentation de 66,5 % pour les hommes et de 63,1 % pour les femmes par rapport à l'année 2006.
+Des études ont fait valoir que les hommes impliqués dans des faits de violence conjugale, qu'ils soient auteurs, victimes ou les deux, subissaient les effets d'un préjugé défavorable dans l'application de la loi.
+Burton et al. (1998) ont constaté que de faibles niveaux de maîtrise de soi sont souvent associés à une activité criminelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Différences_sexuelles_chez_l'humain</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diff%C3%A9rences_sexuelles_chez_l%27humain</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sociologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Éducation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, 74,1 % des femmes étaient inscrites dans l'enseignement secondaire, indépendamment de l'âge, à l'échelle mondiale. Dans la même année, 76,3 % des hommes étaient inscrits. Cela représente une augmentation de 66,5 % pour les hommes et de 63,1 % pour les femmes par rapport à l'année 2006.
 Il semble apparaître des DLS dans les résultats scolaires. Cela peut être explicable par la discrimination dans la loi, dans la culture, ou refléter des différences d'intérêts des sexes (motivation). Il semble plus réaliste de les considérer comme des différences liées au genre. Car des résultats récents d'études PISA  ont montré que dans des pays où les études de jeunes filles n'étaient pas valorisées, elles avaient des scores de réussite en mathématiques plus faibles que ceux des garçons (par exemple en Turquie), alors que ce peut être l'inverse ailleurs, par exemple en Islande, pays qui fut dirigé par Vigdis Finnbogadottir, première présidente élue au monde.[réf. souhaitée] La différence ne serait pas sexuelle, donc, mais de genre. Certains préconisent une pédagogie neutre.
 </t>
         </is>
